--- a/Seasons/Fantasy Premier League 2022.xlsx
+++ b/Seasons/Fantasy Premier League 2022.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="69">
   <si>
     <t>Team</t>
   </si>
@@ -47,25 +47,31 @@
     <t>GD</t>
   </si>
   <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
     <t>Manchester Utd</t>
   </si>
   <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>West Ham</t>
   </si>
   <si>
-    <t>Brighton</t>
+    <t>Aston Villa</t>
   </si>
   <si>
     <t>Leicester City</t>
@@ -77,36 +83,30 @@
     <t>Watford</t>
   </si>
   <si>
-    <t>Aston Villa</t>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Southampton</t>
   </si>
   <si>
     <t>Burnley</t>
   </si>
   <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Newcastle Utd</t>
   </si>
   <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
     <t>Norwich City</t>
   </si>
   <si>
-    <t>Leeds United</t>
-  </si>
-  <si>
     <t>xW</t>
   </si>
   <si>
@@ -140,15 +140,15 @@
     <t>Pts/G</t>
   </si>
   <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
     <t>Malachi</t>
   </si>
   <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
     <t>Sabastian</t>
   </si>
   <si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Eli_V_Brandon</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -716,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -743,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U2">
         <v>2022</v>
@@ -761,31 +764,31 @@
         <v>40</v>
       </c>
       <c r="W2">
+        <v>9</v>
+      </c>
+      <c r="X2">
         <v>5</v>
       </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB2">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AC2">
         <v>13</v>
       </c>
       <c r="AD2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -808,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -820,25 +823,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -847,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>2022</v>
@@ -865,31 +868,31 @@
         <v>41</v>
       </c>
       <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>13</v>
+      </c>
+      <c r="AB3">
+        <v>1.62</v>
+      </c>
+      <c r="AC3">
+        <v>14</v>
+      </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3">
         <v>5</v>
-      </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>9</v>
-      </c>
-      <c r="AB3">
-        <v>1.8</v>
-      </c>
-      <c r="AC3">
-        <v>6</v>
-      </c>
-      <c r="AD3">
-        <v>7</v>
-      </c>
-      <c r="AE3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -897,52 +900,52 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -954,31 +957,31 @@
         <v>42</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>3</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AC4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -986,52 +989,52 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1043,31 +1046,31 @@
         <v>43</v>
       </c>
       <c r="W5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE5">
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1075,7 +1078,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1084,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1146,16 +1149,16 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1173,10 +1176,10 @@
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1202,13 +1205,13 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1291,73 +1294,73 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>2022</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W9">
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>16</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>14</v>
+      </c>
+      <c r="AD9">
+        <v>9</v>
+      </c>
+      <c r="AE9">
         <v>5</v>
-      </c>
-      <c r="X9">
-        <v>3</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>11</v>
-      </c>
-      <c r="AB9">
-        <v>2.2</v>
-      </c>
-      <c r="AC9">
-        <v>8</v>
-      </c>
-      <c r="AD9">
-        <v>5</v>
-      </c>
-      <c r="AE9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1365,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1374,43 +1377,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1422,31 +1425,31 @@
         <v>40</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB10">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AC10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1469,16 +1472,16 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1508,34 +1511,34 @@
         <v>2022</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <v>2</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AD11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1546,28 +1549,28 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1600,28 +1603,28 @@
         <v>43</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z12">
         <v>3</v>
       </c>
       <c r="AA12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AC12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE12">
         <v>-2</v>
@@ -1632,10 +1635,10 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1644,22 +1647,22 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>-1</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1668,19 +1671,19 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1688,55 +1691,55 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
+        <v>-3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
         <v>-1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1744,52 +1747,52 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S15">
         <v>-1</v>
@@ -1818,34 +1821,34 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>-1</v>
@@ -1871,37 +1874,37 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>-2</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>-1</v>
@@ -1936,31 +1939,31 @@
         <v>-2</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1968,7 +1971,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1977,22 +1980,22 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>-3</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2024,7 +2027,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2033,22 +2036,22 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2080,7 +2083,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2089,46 +2092,46 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>-8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
         <v>5</v>
       </c>
-      <c r="I21">
+      <c r="S21">
         <v>-4</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2260,7 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -2290,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -2307,7 +2310,7 @@
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -2340,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2357,31 +2360,31 @@
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="W4" t="s">
         <v>58</v>
@@ -2404,31 +2407,31 @@
         <v>2022</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2436,10 +2439,10 @@
         <v>2022</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2448,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>-4</v>
@@ -2500,7 +2503,7 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2532,7 +2535,7 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2564,28 +2567,28 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
         <v>-1</v>
@@ -2596,28 +2599,28 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U12">
         <v>-1</v>
@@ -2628,28 +2631,28 @@
         <v>2022</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>-1</v>
@@ -2781,31 +2784,31 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W2" t="s">
         <v>59</v>
@@ -2817,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>3</v>
       </c>
       <c r="AB2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -2831,7 +2834,7 @@
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -2849,13 +2852,13 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
         <v>60</v>
@@ -2864,16 +2867,16 @@
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2881,7 +2884,7 @@
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2931,7 +2934,7 @@
         <v>2022</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2952,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2963,10 +2966,10 @@
         <v>2022</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2975,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2984,10 +2987,10 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3027,7 +3030,7 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3059,7 +3062,7 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3091,10 +3094,10 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3103,19 +3106,19 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3123,31 +3126,31 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3308,13 +3311,13 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3323,22 +3326,22 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
         <v>62</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -3347,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -3358,28 +3361,28 @@
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -3388,19 +3391,19 @@
         <v>63</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -3408,13 +3411,13 @@
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3423,16 +3426,16 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W4" t="s">
         <v>64</v>
@@ -3458,7 +3461,7 @@
         <v>2022</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3490,7 +3493,7 @@
         <v>2022</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3554,13 +3557,13 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3569,16 +3572,16 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3586,28 +3589,28 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -3618,7 +3621,7 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3650,28 +3653,28 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3682,7 +3685,7 @@
         <v>2022</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3835,13 +3838,13 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3850,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
         <v>65</v>
@@ -3877,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -3885,10 +3888,10 @@
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -3897,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
         <v>66</v>
@@ -3926,13 +3929,16 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:28">
       <c r="L4">
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3950,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -3982,13 +3988,13 @@
         <v>2022</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3997,13 +4003,13 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -4014,10 +4020,10 @@
         <v>2022</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4026,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4035,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>-3</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4078,13 +4084,13 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4093,16 +4099,16 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4110,13 +4116,13 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -4125,16 +4131,16 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4142,10 +4148,10 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -4154,19 +4160,19 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -4174,7 +4180,7 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4206,10 +4212,10 @@
         <v>2022</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -4218,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4227,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>

--- a/Seasons/Fantasy Premier League 2022.xlsx
+++ b/Seasons/Fantasy Premier League 2022.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="68">
   <si>
     <t>Team</t>
   </si>
@@ -47,63 +47,63 @@
     <t>GD</t>
   </si>
   <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
     <t>Liverpool</t>
   </si>
   <si>
+    <t>Manchester Utd</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
     <t>Brighton</t>
   </si>
   <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Manchester Utd</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
     <t>Watford</t>
   </si>
   <si>
+    <t>Southampton</t>
+  </si>
+  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
     <t>Leeds United</t>
   </si>
   <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Newcastle Utd</t>
+  </si>
+  <si>
     <t>Wolves</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Newcastle Utd</t>
-  </si>
-  <si>
     <t>Norwich City</t>
   </si>
   <si>
@@ -143,12 +143,12 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Malachi</t>
+  </si>
+  <si>
     <t>Brandon</t>
   </si>
   <si>
-    <t>Malachi</t>
-  </si>
-  <si>
     <t>Sabastian</t>
   </si>
   <si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>Eli_V_Brandon</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -707,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -719,25 +716,25 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -746,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U2">
         <v>2022</v>
@@ -764,31 +761,31 @@
         <v>40</v>
       </c>
       <c r="W2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AB2">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AC2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AD2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -811,55 +808,55 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>9</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
       <c r="Q3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U3">
         <v>2022</v>
@@ -868,31 +865,46 @@
         <v>41</v>
       </c>
       <c r="W3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z3">
         <v>3</v>
       </c>
       <c r="AA3">
+        <v>22</v>
+      </c>
+      <c r="AB3">
+        <v>1.47</v>
+      </c>
+      <c r="AC3">
+        <v>26</v>
+      </c>
+      <c r="AD3">
+        <v>19</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>11</v>
+      </c>
+      <c r="AI3">
+        <v>15</v>
+      </c>
+      <c r="AJ3">
         <v>13</v>
       </c>
-      <c r="AB3">
-        <v>1.62</v>
-      </c>
-      <c r="AC3">
-        <v>14</v>
-      </c>
-      <c r="AD3">
-        <v>9</v>
-      </c>
-      <c r="AE3">
-        <v>5</v>
+      <c r="AK3">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -900,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -912,25 +924,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -939,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>2022</v>
@@ -957,31 +969,46 @@
         <v>42</v>
       </c>
       <c r="W4">
+        <v>15</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
         <v>7</v>
       </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>3</v>
-      </c>
       <c r="AA4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AB4">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AC4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE4">
-        <v>3</v>
+        <v>-2</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>18</v>
+      </c>
+      <c r="AI4">
+        <v>22</v>
+      </c>
+      <c r="AJ4">
+        <v>18</v>
+      </c>
+      <c r="AK4">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -989,10 +1016,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1001,25 +1028,25 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1028,16 +1055,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>2022</v>
@@ -1046,28 +1073,28 @@
         <v>43</v>
       </c>
       <c r="W5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE5">
         <v>-7</v>
@@ -1078,55 +1105,55 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1134,52 +1161,52 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1190,55 +1217,55 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>36</v>
@@ -1279,88 +1306,88 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>2022</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AC9">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AD9">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1368,10 +1395,10 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1380,40 +1407,40 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1425,31 +1452,31 @@
         <v>40</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AB10">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="AC10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE10">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1457,52 +1484,52 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1511,34 +1538,34 @@
         <v>2022</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AB11">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AC11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AD11">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE11">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1546,55 +1573,55 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>2022</v>
@@ -1603,31 +1630,31 @@
         <v>43</v>
       </c>
       <c r="W12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AB12">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AE12">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1635,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1644,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1653,37 +1680,37 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>3</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1691,55 +1718,55 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I14">
+        <v>-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>-3</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1747,55 +1774,55 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -1803,52 +1830,52 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16">
         <v>-1</v>
@@ -1859,46 +1886,46 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -1915,55 +1942,55 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
         <v>4</v>
       </c>
       <c r="S18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1971,7 +1998,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1980,46 +2007,46 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>-3</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2027,7 +2054,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2036,46 +2063,46 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>-9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
         <v>6</v>
       </c>
-      <c r="I20">
-        <v>-4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
       <c r="S20">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2083,7 +2110,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2092,43 +2119,43 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>2</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S21">
         <v>-4</v>
@@ -2260,40 +2287,40 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
         <v>56</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -2302,39 +2329,66 @@
         <v>8</v>
       </c>
       <c r="AB2">
-        <v>1.142857142857143</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>-8</v>
+      </c>
       <c r="L3">
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W3" t="s">
         <v>57</v>
@@ -2343,45 +2397,72 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB3">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>-7</v>
+      </c>
       <c r="L4">
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U4">
         <v>-3</v>
@@ -2390,7 +2471,7 @@
         <v>58</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -2399,7 +2480,10 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -2407,28 +2491,28 @@
         <v>2022</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5">
         <v>-4</v>
@@ -2439,28 +2523,28 @@
         <v>2022</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>-4</v>
@@ -2503,31 +2587,31 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2535,28 +2619,28 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2567,28 +2651,28 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <v>-1</v>
@@ -2599,10 +2683,10 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2611,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -2620,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2631,10 +2715,10 @@
         <v>2022</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2643,19 +2727,19 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
@@ -2784,13 +2868,13 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -2799,113 +2883,167 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
         <v>59</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>2</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
       <c r="L3">
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W3" t="s">
         <v>60</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB3">
-        <v>1.571428571428571</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
       <c r="L4">
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -2934,28 +3072,28 @@
         <v>2022</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>-2</v>
@@ -2966,28 +3104,28 @@
         <v>2022</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>-3</v>
@@ -3030,31 +3168,31 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3062,28 +3200,28 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -3094,31 +3232,31 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3126,31 +3264,31 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12">
         <v>4</v>
       </c>
       <c r="U12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3158,31 +3296,31 @@
         <v>2022</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -3311,28 +3449,28 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
         <v>6</v>
       </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>5</v>
@@ -3344,30 +3482,57 @@
         <v>2</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="L3">
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -3376,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
         <v>63</v>
@@ -3394,45 +3559,72 @@
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>1.142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>-2</v>
+      </c>
       <c r="L4">
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -3441,19 +3633,19 @@
         <v>64</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3461,10 +3653,10 @@
         <v>2022</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -3473,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -3482,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -3493,10 +3685,10 @@
         <v>2022</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3505,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3514,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>-2</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3557,31 +3749,31 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9</v>
       </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
       <c r="S9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3589,13 +3781,13 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -3604,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3621,31 +3813,31 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3653,28 +3845,28 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3685,31 +3877,31 @@
         <v>2022</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
@@ -3838,13 +4030,13 @@
         <v>2022</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3853,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>3</v>
@@ -3880,21 +4072,48 @@
         <v>3</v>
       </c>
       <c r="AB2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>2022</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -3903,16 +4122,16 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W3" t="s">
         <v>66</v>
@@ -3924,42 +4143,69 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" t="s">
-        <v>68</v>
+      <c r="AB3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
       <c r="L4">
         <v>2022</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -3968,19 +4214,19 @@
         <v>67</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB4">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3991,7 +4237,7 @@
         <v>20</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -4000,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -4009,10 +4255,10 @@
         <v>3</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4023,7 +4269,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4032,19 +4278,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4084,13 +4330,13 @@
         <v>2022</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4099,16 +4345,16 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4116,10 +4362,10 @@
         <v>2022</v>
       </c>
       <c r="M10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -4128,19 +4374,19 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>4</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4148,13 +4394,13 @@
         <v>2022</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -4163,16 +4409,16 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -4180,31 +4426,31 @@
         <v>2022</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -4212,31 +4458,31 @@
         <v>2022</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
